--- a/data/ch06/xlwings_test_02.xlsx
+++ b/data/ch06/xlwings_test_02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\myPyExcel\data\ch06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18927F21-3BBF-4DF4-B469-1560F1D4BC10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCC77124-BC40-449E-953D-BB462FAC86EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16065" yWindow="3360" windowWidth="9615" windowHeight="10875" xr2:uid="{CD90CB2F-ADE9-4D2A-861A-9F175F0CA04B}"/>
+    <workbookView xWindow="8670" yWindow="4410" windowWidth="14040" windowHeight="9675" xr2:uid="{4C130E95-AFCD-495A-BC8F-3743D1520178}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -414,7 +408,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C3B0B5-BD71-4239-BDBF-D65E26F2B7F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E248A1A-C638-4F7A-8A62-4847884C5BAA}">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
